--- a/src/specsyzer/literature_data/lines_data.xlsx
+++ b/src/specsyzer/literature_data/lines_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vital\PycharmProjects\spectra-synthesizer\src\specsyzer\literature_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9261EB-FBC5-414E-9E25-A64650F0BEE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6E3C9-1DE1-4259-8691-9ED218B7A45A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,9 +544,6 @@
     <t>$3729\,[OII]$</t>
   </si>
   <si>
-    <t>$3889\,H8 + HeI$</t>
-  </si>
-  <si>
     <t>$3889\,H\epsilon$</t>
   </si>
   <si>
@@ -650,13 +647,16 @@
   </si>
   <si>
     <t>$3726+3729\,[OII]$</t>
+  </si>
+  <si>
+    <t>$3889\,H8+HeI$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1148,10 +1148,10 @@
   <dimension ref="A1:AML39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
@@ -1164,7 +1164,7 @@
     <col min="10" max="1026" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1210,13 +1210,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1236,13 +1236,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1256,13 +1256,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1308,13 +1308,13 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1334,13 +1334,13 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1360,13 +1360,13 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1386,13 +1386,13 @@
         <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1412,13 +1412,13 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1438,13 +1438,13 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1464,13 +1464,13 @@
         <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1490,13 +1490,13 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1516,13 +1516,13 @@
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -1542,13 +1542,13 @@
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1568,13 +1568,13 @@
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -1594,13 +1594,13 @@
         <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1620,13 +1620,13 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -1646,13 +1646,13 @@
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -1672,13 +1672,13 @@
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -1698,13 +1698,13 @@
         <v>17</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1724,13 +1724,13 @@
         <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -1750,13 +1750,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -1776,13 +1776,13 @@
         <v>17</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -1802,13 +1802,13 @@
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -1828,13 +1828,13 @@
         <v>17</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -1854,13 +1854,13 @@
         <v>17</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -1880,13 +1880,13 @@
         <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>117</v>
       </c>
@@ -1906,13 +1906,13 @@
         <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>121</v>
       </c>
@@ -1932,13 +1932,13 @@
         <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>168</v>
@@ -1967,7 +1967,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -1981,13 +1981,13 @@
         <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>168</v>
@@ -2016,7 +2016,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>136</v>
       </c>
@@ -2036,13 +2036,13 @@
         <v>17</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2062,13 +2062,13 @@
         <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -2088,13 +2088,13 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -2114,13 +2114,13 @@
         <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2140,13 +2140,13 @@
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>168</v>
@@ -2190,12 +2190,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18">
       <c r="A9" s="6" t="s">
         <v>142</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="6" t="s">
         <v>150</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
@@ -2401,7 +2401,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18">
       <c r="A15" s="8" t="s">
         <v>79</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18">
       <c r="A16" s="8" t="s">
         <v>100</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18">
       <c r="A17" s="8" t="s">
         <v>113</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18">
       <c r="A18" s="8" t="s">
         <v>117</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18">
       <c r="A19" s="8" t="s">
         <v>154</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
@@ -2569,7 +2569,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18">
       <c r="A21" s="11" t="s">
         <v>104</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18">
       <c r="A22" s="12" t="s">
         <v>109</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
@@ -2617,7 +2617,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18">
       <c r="A24" s="12" t="s">
         <v>83</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18">
       <c r="A25" s="11" t="s">
         <v>138</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18">
       <c r="A26" s="11" t="s">
         <v>146</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -2685,7 +2685,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18">
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18">
       <c r="A29" s="12" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18">
       <c r="A30" s="12" t="s">
         <v>124</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18">
       <c r="A31" s="12" t="s">
         <v>131</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -2773,7 +2773,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18">
       <c r="A33" s="12" t="s">
         <v>46</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="18">
       <c r="A34" s="11" t="s">
         <v>66</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="18">
       <c r="A35" s="11" t="s">
         <v>70</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18">
       <c r="A36" s="11"/>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
@@ -2841,7 +2841,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="18">
       <c r="A37" s="13" t="s">
         <v>74</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="18">
       <c r="A38" s="12" t="s">
         <v>88</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="18">
       <c r="A39" s="12" t="s">
         <v>96</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -2909,7 +2909,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="18">
       <c r="A41" s="11" t="s">
         <v>121</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="18">
       <c r="A42" s="11" t="s">
         <v>136</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="18">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
